--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD111AC-39ED-4E10-94FE-E3E07E97B9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFA3E7B-AAAC-4AD1-B1AA-D7C295469774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -169,70 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「エラー画面」と表示されている</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エラーが発生しました。</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」と表示されている</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「前へ戻る」を押下</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前の画面へ遷移すること</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事前条件</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ジゼンジョウケン </t>
@@ -246,6 +175,473 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ギホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fullness Stationery社 文具/雑貨販売システム</t>
+    <rPh sb="19" eb="20">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー株式会社</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（完了）画面</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
+・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文具/雑貨販売システム」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクが表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンが表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されている</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」画面が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンを押下</t>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者アカウント登録（入力）画面へ遷移すること</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「担当者アカウント登録（完了）画面」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録（完了）」と表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「鈴木けんぞうさんのアカウントをsuzukiで作成しました。」
+と表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「業務終了」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「入力に戻る」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/complete」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/complete」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「入力に戻る」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「業務終了」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前の「メニュー」画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -320,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -529,13 +925,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,63 +996,33 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -660,13 +1044,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,8 +1065,89 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1031,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H26" sqref="H26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1043,105 +1511,119 @@
     <col min="2" max="2" width="17.1796875" style="5" customWidth="1"/>
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
-    <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
+    <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12" style="4" customWidth="1"/>
     <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10">
+        <v>45496</v>
+      </c>
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="A3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" ht="30.5" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1150,20 +1632,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1173,154 +1655,592 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-    </row>
-    <row r="7" spans="1:17" ht="11">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-    </row>
-    <row r="8" spans="1:17" ht="11">
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="C8" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
-    </row>
-    <row r="9" spans="1:17" ht="11">
+      <c r="P8" s="30"/>
+      <c r="Q8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="41"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="44.5" customHeight="1">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="39" customHeight="1">
+      <c r="A19" s="6">
+        <v>15</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" ht="65.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>16</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
+    </row>
+    <row r="21" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A21" s="6">
+        <v>17</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A22" s="6">
+        <v>18</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A23" s="6">
+        <v>19</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A24" s="6">
+        <v>20</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A25" s="6">
+        <v>21</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="26"/>
+    </row>
+    <row r="27" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+  <mergeCells count="58">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P5:Q5"/>
@@ -1332,11 +2252,14 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFA3E7B-AAAC-4AD1-B1AA-D7C295469774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5596C1-9CA0-45CC-AF74-BB7C07C75155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>作成者</t>
   </si>
@@ -505,25 +505,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「担当者アカウント登録（完了）画面」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -642,6 +623,45 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・担当者アカウント登録（確認）画面で、
+社員名：鈴木けんぞう
+アカウント名：suzuki
+パスワード：***********
+が確認されていること</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「担当者アカウント登録（完了）」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -949,7 +969,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,11 +1028,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1021,22 +1050,94 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1044,89 +1145,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1136,18 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1501,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="H26" sqref="H26:L26"/>
     </sheetView>
   </sheetViews>
@@ -1520,25 +1534,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1553,23 +1567,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1581,49 +1595,51 @@
       </c>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:17" ht="65" customHeight="1">
+      <c r="A3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1632,20 +1648,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="20" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1655,75 +1671,75 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="27" t="s">
         <v>27</v>
       </c>
@@ -1734,19 +1750,19 @@
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="27" t="s">
         <v>28</v>
       </c>
@@ -1757,19 +1773,19 @@
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="27" t="s">
         <v>29</v>
       </c>
@@ -1788,11 +1804,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="27" t="s">
         <v>30</v>
       </c>
@@ -1811,11 +1827,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="27" t="s">
         <v>31</v>
       </c>
@@ -1834,11 +1850,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="27" t="s">
         <v>32</v>
       </c>
@@ -1857,15 +1873,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -1882,13 +1898,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -1905,13 +1921,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -1928,13 +1944,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -1951,13 +1967,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="27" t="s">
         <v>35</v>
       </c>
@@ -1975,23 +1991,23 @@
       <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24" t="s">
+      <c r="C19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2002,21 +2018,21 @@
       <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="24" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2027,7 +2043,7 @@
       <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -2037,13 +2053,13 @@
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2054,7 +2070,7 @@
       <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="27" t="s">
         <v>41</v>
       </c>
@@ -2062,13 +2078,13 @@
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2079,7 +2095,7 @@
       <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="27" t="s">
         <v>43</v>
       </c>
@@ -2087,13 +2103,13 @@
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2104,7 +2120,7 @@
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="27" t="s">
         <v>45</v>
       </c>
@@ -2112,24 +2128,24 @@
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="27" t="s">
         <v>47</v>
       </c>
@@ -2137,13 +2153,13 @@
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2154,89 +2170,61 @@
       <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="H26" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="26"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="22" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2253,13 +2241,41 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5596C1-9CA0-45CC-AF74-BB7C07C75155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDAFCE-AAF4-432E-AEDD-5B627BC134AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>作成者</t>
   </si>
@@ -202,19 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日本証券テクノロジー株式会社</t>
-    <rPh sb="0" eb="4">
-      <t>ニホンショウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>担当者アカウント登録（完了）画面</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -346,16 +333,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン」画面が表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -558,32 +535,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/complete」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/complete」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -662,6 +613,71 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「担当者アカウント登録（完了）画面」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registeraccount/complete」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registeraccount/complete」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1029,11 +1045,131 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1042,126 +1178,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1515,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:L26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1534,25 +1550,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1563,27 +1579,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1596,50 +1612,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1648,20 +1664,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1671,128 +1687,128 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="60"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1804,18 +1820,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1827,18 +1843,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1850,18 +1866,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1873,20 +1889,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="C14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1898,18 +1914,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1918,21 +1934,21 @@
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1941,21 +1957,21 @@
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1964,102 +1980,100 @@
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="39" customHeight="1">
+    <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
-    </row>
-    <row r="20" spans="1:17" ht="65.5" customHeight="1">
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2068,48 +2082,48 @@
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
-        <v>19</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2118,113 +2132,143 @@
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
-        <v>20</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="59"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+    </row>
+    <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
-        <v>23</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="1:17" ht="37" customHeight="1">
       <c r="A27" s="6">
-        <v>24</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2241,41 +2285,13 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDAFCE-AAF4-432E-AEDD-5B627BC134AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B258C-7ECA-4929-82DD-60A4A4ED65B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -649,35 +649,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registeraccount/complete」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registeraccount/complete」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registeraccount/complete」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registeraccount/complete」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1044,6 +1044,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1053,29 +1056,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1085,99 +1178,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1550,25 +1550,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,27 +1579,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1612,50 +1612,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1664,20 +1664,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="39" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1687,128 +1687,128 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="40"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="20" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="20" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1820,18 +1820,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="20" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1843,18 +1843,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="20" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1866,18 +1866,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1889,20 +1889,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1914,18 +1914,18 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="20" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1937,18 +1937,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="20" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1960,18 +1960,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="20" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1983,20 +1983,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="20" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2007,23 +2007,23 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="43" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2034,21 +2034,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="43" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2059,21 +2059,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="43" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2084,46 +2084,46 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="43" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="43" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2134,73 +2134,73 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="61" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="59"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="62" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="61" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="57" t="s">
+      <c r="C26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2211,21 +2211,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="57" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2234,41 +2234,13 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2285,13 +2257,41 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B258C-7ECA-4929-82DD-60A4A4ED65B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C26359-3526-4B26-870A-AFDE9F22CA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>作成者</t>
   </si>
@@ -678,6 +678,27 @@
     </rPh>
     <rPh sb="76" eb="78">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードをする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されるようにする</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1044,28 +1065,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,18 +1106,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1529,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:G27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1696,53 +1717,53 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
@@ -1756,13 +1777,13 @@
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1779,13 +1800,13 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1802,13 +1823,13 @@
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1825,13 +1846,13 @@
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1848,13 +1869,13 @@
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1871,13 +1892,13 @@
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
       <c r="G13" s="64"/>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1896,13 +1917,13 @@
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="36"/>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1919,13 +1940,13 @@
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="39"/>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1942,13 +1963,13 @@
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1965,13 +1986,13 @@
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1983,20 +2004,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="21" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2007,23 +2028,23 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2034,21 +2055,21 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="20" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2059,21 +2080,21 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="20" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -2084,46 +2105,46 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2134,73 +2155,73 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="26"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="24" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="26"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2211,29 +2232,54 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="26"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
     </row>
+    <row r="28" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="60">
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="P8:Q8"/>
@@ -2276,13 +2322,11 @@
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
@@ -2292,6 +2336,10 @@
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C26359-3526-4B26-870A-AFDE9F22CA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63AFAC6-FFCD-439B-BCA8-74691228941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -699,6 +699,21 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1075,129 +1090,129 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1552,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1571,25 +1586,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,23 +1619,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1630,53 +1645,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1685,20 +1702,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1708,75 +1725,87 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="60"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
@@ -1784,22 +1813,28 @@
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
+      <c r="M8" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1807,22 +1842,28 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
+      <c r="M9" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1830,9 +1871,15 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="M10" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
     </row>
@@ -1841,11 +1888,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
@@ -1853,9 +1900,15 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="M11" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
     </row>
@@ -1864,11 +1917,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
@@ -1876,9 +1929,15 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="M12" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
     </row>
@@ -1887,11 +1946,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
@@ -1899,9 +1958,15 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="M13" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="19"/>
     </row>
@@ -1910,13 +1975,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="20" t="s">
         <v>48</v>
       </c>
@@ -1924,9 +1989,15 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="M14" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="19"/>
     </row>
@@ -1935,11 +2006,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="20" t="s">
         <v>49</v>
       </c>
@@ -1947,9 +2018,15 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="M15" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
     </row>
@@ -1958,11 +2035,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="20" t="s">
         <v>50</v>
       </c>
@@ -1970,9 +2047,15 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="M16" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
@@ -1981,11 +2064,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
@@ -1993,9 +2076,15 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="M17" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
@@ -2004,13 +2093,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
@@ -2018,9 +2107,15 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="M18" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
     </row>
@@ -2028,7 +2123,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -2038,16 +2133,22 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
     </row>
@@ -2055,7 +2156,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="20" t="s">
         <v>39</v>
       </c>
@@ -2063,16 +2164,22 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
     </row>
@@ -2080,7 +2187,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="20" t="s">
         <v>41</v>
       </c>
@@ -2088,16 +2195,22 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
     </row>
@@ -2105,7 +2218,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
@@ -2113,24 +2226,30 @@
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="20" t="s">
         <v>45</v>
       </c>
@@ -2138,16 +2257,22 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
     </row>
@@ -2155,7 +2280,7 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
@@ -2163,65 +2288,77 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="25"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="64"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2232,21 +2369,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="23" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2257,7 +2394,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="20" t="s">
         <v>62</v>
       </c>
@@ -2265,13 +2402,13 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2280,13 +2417,43 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2303,43 +2470,13 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63AFAC6-FFCD-439B-BCA8-74691228941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE60DD5-DC1A-4FE7-BCE0-AB03177058B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -704,10 +704,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1090,28 +1086,121 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1120,99 +1209,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1567,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1586,25 +1582,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1619,23 +1615,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1646,54 +1642,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1702,20 +1698,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="39" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1725,87 +1721,87 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="40"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
@@ -1817,24 +1813,24 @@
         <v>45504</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1846,24 +1842,24 @@
         <v>45504</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1875,7 +1871,7 @@
         <v>45504</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>64</v>
@@ -1888,11 +1884,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
@@ -1904,7 +1900,7 @@
         <v>45504</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1917,11 +1913,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
@@ -1933,7 +1929,7 @@
         <v>45504</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>64</v>
@@ -1946,11 +1942,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
@@ -1962,7 +1958,7 @@
         <v>45504</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>64</v>
@@ -1975,13 +1971,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="20" t="s">
         <v>48</v>
       </c>
@@ -1993,7 +1989,7 @@
         <v>45504</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>64</v>
@@ -2006,11 +2002,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="20" t="s">
         <v>49</v>
       </c>
@@ -2022,7 +2018,7 @@
         <v>45504</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>64</v>
@@ -2035,11 +2031,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="20" t="s">
         <v>50</v>
       </c>
@@ -2051,7 +2047,7 @@
         <v>45504</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>64</v>
@@ -2064,11 +2060,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
@@ -2080,7 +2076,7 @@
         <v>45504</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>64</v>
@@ -2093,13 +2089,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
@@ -2111,7 +2107,7 @@
         <v>45504</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>64</v>
@@ -2123,7 +2119,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -2133,18 +2129,18 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>64</v>
@@ -2156,7 +2152,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="20" t="s">
         <v>39</v>
       </c>
@@ -2164,18 +2160,18 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>64</v>
@@ -2187,7 +2183,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="20" t="s">
         <v>41</v>
       </c>
@@ -2195,18 +2191,18 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>64</v>
@@ -2218,7 +2214,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
@@ -2226,30 +2222,30 @@
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="20" t="s">
         <v>45</v>
       </c>
@@ -2257,21 +2253,21 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
@@ -2280,7 +2276,7 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
@@ -2288,77 +2284,77 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="64"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2369,24 +2365,30 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="61" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
     </row>
@@ -2394,7 +2396,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="20" t="s">
         <v>62</v>
       </c>
@@ -2402,13 +2404,13 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2417,6 +2419,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2433,50 +2479,6 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE60DD5-DC1A-4FE7-BCE0-AB03177058B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100320A-5892-4ABD-8E45-D87BAD8A3658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -710,6 +710,20 @@
     <t>高良</t>
     <rPh sb="0" eb="2">
       <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー画面が出る</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1086,129 +1100,129 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1563,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1582,25 +1596,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1615,23 +1629,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1646,50 +1660,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1698,20 +1712,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1721,32 +1735,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="60"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1756,28 +1770,28 @@
       <c r="O6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1787,21 +1801,21 @@
       <c r="O7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
@@ -1818,19 +1832,19 @@
       <c r="O8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1847,19 +1861,19 @@
       <c r="O9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1884,11 +1898,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
@@ -1913,11 +1927,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
@@ -1942,11 +1956,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
@@ -1971,13 +1985,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="20" t="s">
         <v>48</v>
       </c>
@@ -2002,11 +2016,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="20" t="s">
         <v>49</v>
       </c>
@@ -2031,11 +2045,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="20" t="s">
         <v>50</v>
       </c>
@@ -2060,11 +2074,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
@@ -2089,13 +2103,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
@@ -2119,7 +2133,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -2129,13 +2143,13 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2152,7 +2166,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="20" t="s">
         <v>39</v>
       </c>
@@ -2160,13 +2174,13 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2183,7 +2197,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="20" t="s">
         <v>41</v>
       </c>
@@ -2191,13 +2205,13 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2214,7 +2228,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
@@ -2222,13 +2236,13 @@
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2238,14 +2252,14 @@
       <c r="O22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="20" t="s">
         <v>45</v>
       </c>
@@ -2253,13 +2267,13 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2276,7 +2290,7 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
@@ -2284,13 +2298,13 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2300,28 +2314,28 @@
       <c r="O24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="25"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="64"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
@@ -2331,55 +2345,63 @@
       <c r="O25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="23" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="16"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="37" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="23" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
@@ -2396,7 +2418,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="20" t="s">
         <v>62</v>
       </c>
@@ -2404,28 +2426,64 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="16"/>
+      <c r="P28" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="Q28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2442,43 +2500,13 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100320A-5892-4ABD-8E45-D87BAD8A3658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3DF7E-DA20-4172-A3B7-A08133E83DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -718,11 +718,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラー画面が出る</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+    <t>ホワイトラベルが出る</t>
+    <rPh sb="8" eb="9">
       <t>デ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1100,28 +1097,121 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1130,99 +1220,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1578,7 +1575,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1596,25 +1593,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,23 +1626,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1660,50 +1657,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1712,20 +1709,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="39" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1735,32 +1732,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="40"/>
+      <c r="Q5" s="60"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
@@ -1770,28 +1767,28 @@
       <c r="O6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
@@ -1801,21 +1798,21 @@
       <c r="O7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
@@ -1832,19 +1829,19 @@
       <c r="O8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1861,19 +1858,19 @@
       <c r="O9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1898,11 +1895,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
@@ -1927,11 +1924,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
@@ -1956,11 +1953,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
@@ -1985,13 +1982,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="20" t="s">
         <v>48</v>
       </c>
@@ -2016,11 +2013,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="20" t="s">
         <v>49</v>
       </c>
@@ -2045,11 +2042,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="20" t="s">
         <v>50</v>
       </c>
@@ -2074,11 +2071,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="20" t="s">
         <v>51</v>
       </c>
@@ -2103,13 +2100,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
@@ -2133,7 +2130,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -2143,13 +2140,13 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
@@ -2166,7 +2163,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="20" t="s">
         <v>39</v>
       </c>
@@ -2174,13 +2171,13 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
@@ -2197,7 +2194,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="20" t="s">
         <v>41</v>
       </c>
@@ -2205,13 +2202,13 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
@@ -2228,7 +2225,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
@@ -2236,13 +2233,13 @@
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
@@ -2252,14 +2249,14 @@
       <c r="O22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="42"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="20" t="s">
         <v>45</v>
       </c>
@@ -2267,13 +2264,13 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
@@ -2290,7 +2287,7 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="20" t="s">
         <v>53</v>
       </c>
@@ -2298,13 +2295,13 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
@@ -2314,28 +2311,28 @@
       <c r="O24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="64"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
@@ -2345,30 +2342,30 @@
       <c r="O25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
@@ -2387,21 +2384,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="61" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
@@ -2418,7 +2415,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="20" t="s">
         <v>62</v>
       </c>
@@ -2426,20 +2423,22 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="15">
         <v>45504</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P28" s="16" t="s">
         <v>67</v>
       </c>
@@ -2447,6 +2446,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2463,50 +2506,6 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3DF7E-DA20-4172-A3B7-A08133E83DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E044D47-26C8-4D2C-881D-BE426BFC4176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>作成者</t>
   </si>
@@ -323,16 +323,6 @@
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -718,9 +708,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ホワイトラベルが出る</t>
+    <t>エラー画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「システムエラー画面」に遷移する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホワイトラベルが出る（修正済み）</t>
     <rPh sb="8" eb="9">
       <t>デ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シュウセイズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1097,129 +1104,129 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1574,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1593,25 +1600,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,27 +1629,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1653,54 +1660,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1709,20 +1716,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="59" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1732,87 +1739,87 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="59" t="s">
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="60"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
@@ -1824,24 +1831,24 @@
         <v>45504</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
+        <v>63</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="20" t="s">
         <v>27</v>
       </c>
@@ -1853,24 +1860,24 @@
         <v>45504</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
+        <v>63</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
@@ -1882,10 +1889,10 @@
         <v>45504</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
@@ -1895,11 +1902,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="20" t="s">
         <v>29</v>
       </c>
@@ -1911,10 +1918,10 @@
         <v>45504</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
@@ -1924,11 +1931,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="20" t="s">
         <v>30</v>
       </c>
@@ -1940,10 +1947,10 @@
         <v>45504</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
@@ -1953,11 +1960,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="20" t="s">
         <v>31</v>
       </c>
@@ -1969,10 +1976,10 @@
         <v>45504</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="19"/>
@@ -1982,15 +1989,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -2000,10 +2007,10 @@
         <v>45504</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="19"/>
@@ -2013,13 +2020,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -2029,10 +2036,10 @@
         <v>45504</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2042,13 +2049,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -2058,10 +2065,10 @@
         <v>45504</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2071,13 +2078,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -2087,10 +2094,10 @@
         <v>45504</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2100,13 +2107,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
@@ -2118,10 +2125,10 @@
         <v>45504</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="19"/>
@@ -2130,31 +2137,31 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="H19" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
@@ -2163,29 +2170,29 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="H20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="19"/>
@@ -2194,29 +2201,29 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="H21" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="19"/>
@@ -2225,60 +2232,60 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="H22" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="H23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
@@ -2287,96 +2294,96 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="H24" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="25"/>
+        <v>63</v>
+      </c>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="64"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
       <c r="M25" s="15">
         <v>45504</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
+      <c r="C26" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
       <c r="M26" s="15">
         <v>45504</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="17"/>
     </row>
@@ -2384,29 +2391,29 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
       <c r="M27" s="15">
         <v>45504</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="17"/>
@@ -2415,44 +2422,74 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
+      <c r="H28" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="64"/>
       <c r="M28" s="15">
         <v>45504</v>
       </c>
       <c r="N28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="Q28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2469,43 +2506,13 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E044D47-26C8-4D2C-881D-BE426BFC4176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC49F4B-328E-4DDD-9E45-CD677FA6D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>作成者</t>
   </si>
@@ -728,6 +728,13 @@
     </rPh>
     <rPh sb="11" eb="14">
       <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1035,7 +1042,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,37 +1062,148 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1094,38 +1212,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1136,98 +1230,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1581,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:L28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1600,25 +1604,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1633,826 +1637,870 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="39" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="40"/>
+      <c r="Q5" s="58"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="15">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="63">
         <v>45504</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="63">
         <v>45504</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="15">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="63">
         <v>45504</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="20" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="15">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="63">
         <v>45504</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="20" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="15">
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="63">
         <v>45504</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="20" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="15">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="63">
         <v>45504</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="20" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="15">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="63">
         <v>45504</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="20" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="15">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="63">
         <v>45504</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="19"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="20" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="15">
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="63">
         <v>45504</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="44.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="20" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="15">
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="63">
         <v>45504</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="20" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="15">
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="63">
         <v>45504</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="20" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="15">
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="63">
         <v>45504</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="62" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="20" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="15">
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="63">
         <v>45504</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="43" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="15">
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="63">
         <v>45504</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="43" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="15">
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="63">
         <v>45504</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="19"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="43" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="15">
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="63">
         <v>45504</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
+      <c r="O21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="43" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="15">
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="63">
         <v>45504</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="43" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="15">
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="63">
         <v>45504</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="61" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="15">
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="63">
         <v>45504</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="64"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="15">
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="63">
         <v>45504</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="15">
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="63">
         <v>45504</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="P26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="17"/>
+      <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="37" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="61" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="15">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="63">
         <v>45504</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="62" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="15">
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="63">
         <v>45504</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2469,50 +2517,6 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC49F4B-328E-4DDD-9E45-CD677FA6D785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CEDA9D-AA5D-476A-AF6E-CE6C45660E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>作成者</t>
   </si>
@@ -683,16 +683,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのままの画面が表示されるようにする</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -704,10 +694,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー画面に遷移する</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -735,6 +721,16 @@
     <t>未実装</t>
     <rPh sb="0" eb="3">
       <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面が表示されるようにする</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1095,6 +1091,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1105,6 +1104,123 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1112,126 +1228,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1585,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1604,25 +1600,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,23 +1633,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1664,54 +1660,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1720,20 +1716,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="57" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1743,160 +1739,160 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="58"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="63">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="18">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="63">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="18">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="63">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="18">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
+        <v>62</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="63">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="18">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
+        <v>62</v>
+      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="63">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="18">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1906,26 +1902,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="63">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="18">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1935,26 +1931,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="63">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="18">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1964,26 +1960,26 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="63">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="18">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -1993,28 +1989,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="63">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="18">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -2024,26 +2020,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="18" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="63">
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="18">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -2053,26 +2049,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="63">
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="18">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2082,26 +2078,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="18" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="63">
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="18">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -2111,28 +2107,28 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="18" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="63">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="18">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -2141,31 +2137,31 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="63">
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="18">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2174,29 +2170,29 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="63">
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="18">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -2205,29 +2201,29 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="63">
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="18">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
@@ -2236,60 +2232,60 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="63">
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="18">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="63">
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="18">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
@@ -2298,96 +2294,96 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="28" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="63">
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="18">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="63"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="28" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="63">
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="18">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="63">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="18">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q26" s="15"/>
     </row>
@@ -2395,29 +2391,29 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="21" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="63">
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="18">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="15"/>
@@ -2426,44 +2422,74 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="18">
+        <v>45505</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="63">
-        <v>45504</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="P28" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="Q28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2480,43 +2506,13 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP005担当者アカウント登録(完了)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CEDA9D-AA5D-476A-AF6E-CE6C45660E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3EBD7E-89B9-4FBB-A7D8-E105DE7DF295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -489,20 +489,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「鈴木けんぞうさんのアカウントをsuzukiで作成しました。」
-と表示されていること</t>
-    <rPh sb="1" eb="3">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「業務終了」ボタンが表示されている</t>
     <rPh sb="1" eb="3">
       <t>ギョウム</t>
@@ -564,29 +550,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・担当者アカウント登録（確認）画面で、
-社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：***********
-が確認されていること</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -704,10 +667,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「システムエラー画面」に遷移する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ホワイトラベルが出る（修正済み）</t>
     <rPh sb="8" eb="9">
       <t>デ</t>
@@ -730,6 +689,49 @@
       <t>ガメン</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・担当者アカウント登録（確認）画面で、
+社員名:田中花子
+アカウント名：hanako
+パスワード：hanako
+が確認されていること</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>タナカハナコ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「田中花子さんのアカウントをhanakoで作成しました。」
+と表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1104,28 +1106,121 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1134,99 +1229,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1581,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1600,25 +1602,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,27 +1631,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1660,54 +1662,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="65" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:17" ht="30.5" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1716,20 +1718,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1739,87 +1741,87 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="39"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="18">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
+        <v>60</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="18">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
+        <v>60</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="19" t="s">
         <v>26</v>
       </c>
@@ -1831,24 +1833,24 @@
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="57"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
@@ -1860,24 +1862,24 @@
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1889,10 +1891,10 @@
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1902,11 +1904,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="19" t="s">
         <v>29</v>
       </c>
@@ -1918,10 +1920,10 @@
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1931,11 +1933,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="19" t="s">
         <v>30</v>
       </c>
@@ -1947,10 +1949,10 @@
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1960,11 +1962,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="19" t="s">
         <v>31</v>
       </c>
@@ -1976,10 +1978,10 @@
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
@@ -1989,13 +1991,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="19" t="s">
         <v>47</v>
       </c>
@@ -2007,10 +2009,10 @@
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
@@ -2020,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="19" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -2036,10 +2038,10 @@
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
@@ -2049,13 +2051,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -2065,10 +2067,10 @@
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
@@ -2078,13 +2080,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -2094,10 +2096,10 @@
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
@@ -2107,13 +2109,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="19" t="s">
         <v>34</v>
       </c>
@@ -2125,10 +2127,10 @@
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
@@ -2137,7 +2139,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -2147,21 +2149,21 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="18">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P19" s="16"/>
       <c r="Q19" s="17"/>
@@ -2170,7 +2172,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="19" t="s">
         <v>38</v>
       </c>
@@ -2178,21 +2180,21 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="18">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" s="17"/>
@@ -2201,7 +2203,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="19" t="s">
         <v>40</v>
       </c>
@@ -2209,21 +2211,21 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="18">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="17"/>
@@ -2232,7 +2234,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="19" t="s">
         <v>42</v>
       </c>
@@ -2240,30 +2242,30 @@
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="18">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
+        <v>60</v>
+      </c>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="19" t="s">
         <v>44</v>
       </c>
@@ -2271,21 +2273,21 @@
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="18">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
@@ -2294,96 +2296,96 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="H24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="18">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="18">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+        <v>60</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
     </row>
     <row r="26" spans="1:17" ht="39" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61" t="s">
+      <c r="C26" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
       <c r="M26" s="18">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="Q26" s="15"/>
     </row>
@@ -2391,29 +2393,29 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
       <c r="M27" s="18">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="15"/>
@@ -2422,37 +2424,81 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="56"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="63"/>
+      <c r="H28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="18">
         <v>45505</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="Q28" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2469,50 +2515,6 @@
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
